--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H2">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>668.5135576928079</v>
+        <v>68.75354147050722</v>
       </c>
       <c r="R2">
-        <v>6016.622019235271</v>
+        <v>618.7818732345651</v>
       </c>
       <c r="S2">
-        <v>0.01762854964478847</v>
+        <v>0.002398270098056896</v>
       </c>
       <c r="T2">
-        <v>0.01762854964478847</v>
+        <v>0.002398270098056896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H3">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>1642.24072629575</v>
+        <v>1025.260831986333</v>
       </c>
       <c r="R3">
-        <v>14780.16653666175</v>
+        <v>9227.347487876998</v>
       </c>
       <c r="S3">
-        <v>0.04330551241490486</v>
+        <v>0.0357632835119703</v>
       </c>
       <c r="T3">
-        <v>0.04330551241490486</v>
+        <v>0.0357632835119703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H4">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I4">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J4">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>841.9376714970579</v>
+        <v>389.1812782884016</v>
       </c>
       <c r="R4">
-        <v>7577.439043473521</v>
+        <v>3502.631504595615</v>
       </c>
       <c r="S4">
-        <v>0.02220170386824628</v>
+        <v>0.01357547265900494</v>
       </c>
       <c r="T4">
-        <v>0.02220170386824628</v>
+        <v>0.01357547265900494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>6820.475086173679</v>
+        <v>1123.574651533478</v>
       </c>
       <c r="R5">
-        <v>61384.27577556312</v>
+        <v>10112.1718638013</v>
       </c>
       <c r="S5">
-        <v>0.1798543683580842</v>
+        <v>0.0391926791271303</v>
       </c>
       <c r="T5">
-        <v>0.1798543683580842</v>
+        <v>0.03919267912713031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I6">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J6">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>16754.87629279599</v>
@@ -818,10 +818,10 @@
         <v>150793.8866351639</v>
       </c>
       <c r="S6">
-        <v>0.4418222564389156</v>
+        <v>0.5844458038120398</v>
       </c>
       <c r="T6">
-        <v>0.4418222564389156</v>
+        <v>0.5844458038120398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I7">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J7">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>8589.82566094118</v>
+        <v>6360.024658858033</v>
       </c>
       <c r="R7">
-        <v>77308.43094847062</v>
+        <v>57240.2219297223</v>
       </c>
       <c r="S7">
-        <v>0.2265117384104903</v>
+        <v>0.2218512186573944</v>
       </c>
       <c r="T7">
-        <v>0.2265117384104903</v>
+        <v>0.2218512186573944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H8">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I8">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J8">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>552.2382604752839</v>
+        <v>136.5758130552217</v>
       </c>
       <c r="R8">
-        <v>4970.144344277555</v>
+        <v>1229.182317496995</v>
       </c>
       <c r="S8">
-        <v>0.01456239664628256</v>
+        <v>0.004764055517178732</v>
       </c>
       <c r="T8">
-        <v>0.01456239664628256</v>
+        <v>0.004764055517178732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H9">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I9">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J9">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>1356.603993344844</v>
+        <v>2036.634458783079</v>
       </c>
       <c r="R9">
-        <v>12209.4359401036</v>
+        <v>18329.71012904771</v>
       </c>
       <c r="S9">
-        <v>0.03577333708464168</v>
+        <v>0.07104215170162512</v>
       </c>
       <c r="T9">
-        <v>0.03577333708464168</v>
+        <v>0.0710421517016251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H10">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I10">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J10">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>695.498527719909</v>
+        <v>773.091078237905</v>
       </c>
       <c r="R10">
-        <v>6259.486749479181</v>
+        <v>6957.819704141144</v>
       </c>
       <c r="S10">
-        <v>0.01834013713364606</v>
+        <v>0.02696706491559952</v>
       </c>
       <c r="T10">
-        <v>0.01834013713364606</v>
+        <v>0.02696706491559952</v>
       </c>
     </row>
   </sheetData>
